--- a/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
+++ b/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
@@ -451,771 +451,1039 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5586</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>540007</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>94.29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1.99</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>540004</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信2026周期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>64.74</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>050010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时特许价值混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001279</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中海积极增利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>84.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004212</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融量化智选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>92.07</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004783</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融量化智选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160805</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长盛同智优势成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001252</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中海进取收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001261</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000654</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华商新锐产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>84.87</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>630011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华商主题精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>83.86</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008009</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华商高端装备制造股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002595</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时工业4.0主题股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004698</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时军工主题股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002453</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002454</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002567</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成国家安全主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>83.41</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003175</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004139</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中邮军民融合灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>90.68</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004423</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华商研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>82.61</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004475</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004671</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中融核心成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>90.45</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008961</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华商科技创新混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1225,7 +1493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,15 +1514,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004010</t>
+          <t>000654</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合A</t>
+          <t>华商新锐产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3724</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004011</t>
+          <t>460002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合C</t>
+          <t>华泰柏瑞积极成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1332,15 +1630,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.68</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.66</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004423</t>
+          <t>008961</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商研究精选灵活配置混合</t>
+          <t>华商科技创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004671</t>
+          <t>004423</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融核心成长灵活配置混合</t>
+          <t>华商研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.76</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010008</t>
+          <t>004671</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融成长优选混合A</t>
+          <t>中融核心成长灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1434,25 +1772,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010009</t>
+          <t>010008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融成长优选混合C</t>
+          <t>中融成长优选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>78.30</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.33</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>001247</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华商新锐产业灵活配置混合</t>
+          <t>华泰柏瑞新利灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>460002</t>
+          <t>004010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合A</t>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>960030</t>
+          <t>001279</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合H</t>
+          <t>中海积极增利灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1546,25 +1924,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001247</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞新利灵活配置混合A</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23.71</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1584,15 +1972,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>23.71</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001279</t>
+          <t>002604</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中海积极增利灵活配置混合</t>
+          <t>华夏新起点灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>68.84</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>004011</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>87.54</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005161</t>
+          <t>010009</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华商上游产业股票</t>
+          <t>中融成长优选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002604</t>
+          <t>005161</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合A</t>
+          <t>华商上游产业股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30.98</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1724,15 +2162,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>30.98</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1.94</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1742,26 +2190,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008961</t>
+          <t>960030</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华商科技创新混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>85.75</t>
-        </is>
-      </c>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
+++ b/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,6 @@
           <t>华泰柏瑞积极成长混合H</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>74.75</t>
@@ -2214,6 +2214,1314 @@
       </c>
       <c r="H19" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3411</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0808</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5831</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001800</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安新乐享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
+++ b/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3527,4 +3528,1004 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7429</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0886</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6345</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5843</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4205</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3934</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3088</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
+++ b/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4528,4 +4529,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
+++ b/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4537,7 +4538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4548,17 +4549,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4568,14 +4589,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.63</v>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4584,14 +4627,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.57</v>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4600,14 +4665,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.29</v>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2330</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4616,13 +4703,1895 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1791</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9439</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6330</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3744</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>68.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>26</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
+++ b/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6490,7 +6491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6501,17 +6502,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6521,14 +6542,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.02</v>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3585</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6537,14 +6580,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.63</v>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6553,14 +6618,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.57</v>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6569,14 +6656,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.29</v>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8525</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6585,13 +6694,1115 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6649</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6587</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6582</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信利富债券</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>26</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
+++ b/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7685,7 +7686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7696,17 +7697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7716,14 +7737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.71</v>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7732,14 +7775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.02</v>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -7748,14 +7813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.63</v>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1889</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -7764,14 +7851,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.57</v>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6312</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -7780,14 +7889,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.29</v>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5872</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -7796,13 +7927,1093 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5367</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3716</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3716</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>26</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
+++ b/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D2" t="n">
-        <v>10.42</v>
+        <v>29.36</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>11.71</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>14.02</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>11.63</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>10.57</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>1.29</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>26</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.33</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏军工安全灵活配置混合</t>
+          <t>华夏军工安全灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.31</t>
+          <t>42.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.5242</t>
+          <t>3.6851</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002345</t>
+          <t>004224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏高端制造灵活配置混合</t>
+          <t>南方军工改革灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>53.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>87.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2706</t>
+          <t>3.5404</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>011148</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏成长混合</t>
+          <t>南方军工改革灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.49</t>
+          <t>41.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.26</t>
+          <t>87.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1889</t>
+          <t>2.7784</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009697</t>
+          <t>004698</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏成长精选6个月定期开放混合A</t>
+          <t>博时军工主题股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>33.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.24</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6312</t>
+          <t>2.3815</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005774</t>
+          <t>010347</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏产业升级混合</t>
+          <t>农银汇理策略收益一年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.60</t>
+          <t>53.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>85.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5872</t>
+          <t>1.7012</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011184</t>
+          <t>960002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方阿尔法招阳混合A</t>
+          <t>华夏回报混合H</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>122.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>48.33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5367</t>
+          <t>1.6358</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519908</t>
+          <t>002345</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏兴华混合A</t>
+          <t>华夏高端制造灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.77</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.18</t>
+          <t>90.97</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3716</t>
+          <t>1.5558</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>960004</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏兴华混合H</t>
+          <t>华夏成长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.77</t>
+          <t>32.40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.18</t>
+          <t>75.59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3716</t>
+          <t>1.5293</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -960,32 +977,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>660010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>农银策略精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>32.55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>84.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2767</t>
+          <t>1.0188</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>015059</t>
+          <t>013566</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏产业升级混合C</t>
+          <t>华夏军工安全灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1920</t>
+          <t>0.9738</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>164402</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合A</t>
+          <t>前海开源中航军工指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>4.79</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1748</t>
+          <t>0.7717</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009698</t>
+          <t>002021</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏成长精选6个月定期开放混合C</t>
+          <t>华夏回报二号混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>50.59</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.24</t>
+          <t>51.94</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1660</t>
+          <t>0.6728</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>001158</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>工银新材料新能源股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>17.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1623</t>
+          <t>0.6496</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>013566</t>
+          <t>050004</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏军工安全灵活配置混合C</t>
+          <t>博时精选混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>19.78</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>66.67</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1476</t>
+          <t>0.4272</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001701</t>
+          <t>000596</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中融产业升级灵活配置混合</t>
+          <t>前海开源中证军工指数A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1203</t>
+          <t>0.3950</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009205</t>
+          <t>008934</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合A</t>
+          <t>大成科技消费股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>37.15</t>
+          <t>84.64</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1041</t>
+          <t>0.3249</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>160518</t>
+          <t>011592</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+          <t>博时军工主题股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.78</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0976</t>
+          <t>0.3205</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1302,32 +1319,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001924</t>
+          <t>000127</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华夏国企改革灵活配置混合</t>
+          <t>农银行业领先混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>84.59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0968</t>
+          <t>0.3127</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1340,36 +1357,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001675</t>
+          <t>011949</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合A</t>
+          <t>东吴多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0758</t>
+          <t>0.3014</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1378,36 +1395,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010697</t>
+          <t>012184</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合A</t>
+          <t>大成创新趋势混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>63.97</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0668</t>
+          <t>0.2373</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1416,36 +1433,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009206</t>
+          <t>012568</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合C</t>
+          <t>天弘高端制造混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37.15</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0635</t>
+          <t>0.2338</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1454,36 +1471,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>002199</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>前海开源中证军工指数C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89.35</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0515</t>
+          <t>0.2098</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1492,36 +1509,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>015058</t>
+          <t>001701</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华夏高端制造灵活配置混合C</t>
+          <t>中融产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0374</t>
+          <t>0.2032</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1530,32 +1547,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005359</t>
+          <t>008819</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
+          <t>农银汇理策略趋势混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>85.36</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0345</t>
+          <t>0.1892</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1568,36 +1585,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001676</t>
+          <t>013417</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合C</t>
+          <t>博时核心资产精选混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>70.34</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0284</t>
+          <t>0.1793</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1606,36 +1623,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010194</t>
+          <t>580009</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>博时睿祥15个月定期开放混合A</t>
+          <t>东吴多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>64.73</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.1722</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1644,36 +1661,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009317</t>
+          <t>160918</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金信核心竞争力灵活配置混合</t>
+          <t>大成中小盘混合（LOF）A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>63.53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0100</t>
+          <t>0.1626</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1682,36 +1699,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>011185</t>
+          <t>010994</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东方阿尔法招阳混合C</t>
+          <t>博时创新经济混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.1595</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1720,36 +1737,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>010698</t>
+          <t>001924</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合C</t>
+          <t>华夏国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.1572</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1758,34 +1775,2304 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012523</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>70.34</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>63.97</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012524</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>32.63</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>32.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>016751</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>010195</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>博时睿祥15个月定期开放混合C</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>64.73</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="n">
-        <v>3</v>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>016401</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>016924</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1860,26 +4147,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.78</t>
+          <t>46.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3585</t>
+          <t>3.5242</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1898,26 +4185,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.47</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4364</t>
+          <t>1.2706</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1926,36 +4213,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002983</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合A</t>
+          <t>华夏成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.74</t>
+          <t>33.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>78.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3343</t>
+          <t>1.1889</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1964,36 +4251,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>009697</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏成长混合</t>
+          <t>华夏成长精选6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31.69</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.21</t>
+          <t>85.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8525</t>
+          <t>0.6312</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2002,36 +4289,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009697</t>
+          <t>005774</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏成长精选6个月定期开放混合A</t>
+          <t>华夏产业升级混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.44</t>
+          <t>12.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7036</t>
+          <t>0.5872</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2040,36 +4327,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005774</t>
+          <t>011184</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏产业升级混合</t>
+          <t>东方阿尔法招阳混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.64</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6649</t>
+          <t>0.5367</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2078,36 +4365,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007449</t>
+          <t>519908</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴全多维价值混合A</t>
+          <t>华夏兴华混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>28.03</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.40</t>
+          <t>81.18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6587</t>
+          <t>0.3716</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2116,36 +4403,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008960</t>
+          <t>960004</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合C</t>
+          <t>华夏兴华混合H</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.19</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>81.18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6582</t>
+          <t>0.3716</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2154,36 +4441,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519908</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏兴华混合A</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3127</t>
+          <t>0.2767</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2192,36 +4479,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>960004</t>
+          <t>015059</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏兴华混合H</t>
+          <t>华夏产业升级混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3127</t>
+          <t>0.1920</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2230,36 +4517,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012568</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘高端制造混合型证券投资基金A</t>
+          <t>中融新经济灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2600</t>
+          <t>0.1748</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -2278,26 +4565,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>85.24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1851</t>
+          <t>0.1660</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -2306,36 +4593,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>460002</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合A</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.55</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1601</t>
+          <t>0.1623</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -2344,36 +4631,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>519993</t>
+          <t>013566</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长信增利动态策略混合</t>
+          <t>华夏军工安全灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1306</t>
+          <t>0.1476</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2382,32 +4669,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>001701</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合A</t>
+          <t>中融产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1119</t>
+          <t>0.1203</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2420,36 +4707,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007450</t>
+          <t>009205</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴全多维价值混合C</t>
+          <t>兴银丰运稳益回报混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>84.40</t>
+          <t>37.15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1053</t>
+          <t>0.1041</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2458,36 +4745,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001701</t>
+          <t>160518</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中融产业升级灵活配置混合</t>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>81.78</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0980</t>
+          <t>0.0976</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2496,36 +4783,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010697</t>
+          <t>001924</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合A</t>
+          <t>华夏国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0766</t>
+          <t>0.0968</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -2544,26 +4831,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>91.80</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0641</t>
+          <t>0.0758</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2572,36 +4859,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519967</t>
+          <t>010697</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>长信利富债券</t>
+          <t>中融行业先锋6个月持有期混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0490</t>
+          <t>0.0668</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2610,36 +4897,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012569</t>
+          <t>009206</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天弘高端制造混合型证券投资基金C</t>
+          <t>兴银丰运稳益回报混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>37.15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2648,22 +4935,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002604</t>
+          <t>001388</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合A</t>
+          <t>中融新经济灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>75.30</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2673,11 +4960,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2686,36 +4973,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010613</t>
+          <t>015058</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合A</t>
+          <t>华夏高端制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0327</t>
+          <t>0.0374</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2724,36 +5011,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001676</t>
+          <t>005359</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合C</t>
+          <t>东方阿尔法精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0264</t>
+          <t>0.0345</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2762,36 +5049,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>001676</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>江信同福灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>91.80</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0240</t>
+          <t>0.0284</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2800,36 +5087,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>519971</t>
+          <t>010194</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>长信改革红利灵活配置混合</t>
+          <t>博时睿祥15个月定期开放混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>73.88</t>
+          <t>64.73</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0195</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2838,36 +5125,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010614</t>
+          <t>009317</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合C</t>
+          <t>金信核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>88.37</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2876,36 +5163,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010698</t>
+          <t>011185</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合C</t>
+          <t>东方阿尔法招阳混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2914,36 +5201,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008213</t>
+          <t>010698</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合C</t>
+          <t>中融行业先锋6个月持有期混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>75.30</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2952,12 +5239,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>960030</t>
+          <t>010195</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合H</t>
+          <t>博时睿祥15个月定期开放混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2967,19 +5254,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>81.55</t>
+          <t>64.73</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2988,6 +5275,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3585</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8525</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6649</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6587</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6582</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信利富债券</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4939,7 +8420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5939,7 +9420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7247,7 +10728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7980,7 +11461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
+++ b/数据整理/stocks/A股/创业板/300034-钢研高纳.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>29.36</v>
+        <v>30.71</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
-        <v>10.42</v>
+        <v>29.36</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>11.71</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>14.02</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>11.63</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>10.57</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>1.29</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1072 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>26</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5586</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1676,2488 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>144.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9724</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5987</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1757</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6987</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>119.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4802</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3820</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0601</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8991</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8314</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015945</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8280</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>53.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7951</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6211</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银新材料新能源股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5876</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5388</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3226</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011903</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方领航优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>55.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011904</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方领航优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>69.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>58.39</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>58.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>69.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>016924</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>58.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>63.74</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>016751</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4073,1200 +7614,6 @@
       </c>
       <c r="H91" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002251</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏军工安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.5242</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002345</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏高端制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.72</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2706</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>33.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1889</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009697</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6312</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005774</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏产业升级混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5872</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011184</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方阿尔法招阳混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5367</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519908</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏兴华混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.18</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3716</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>960004</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏兴华混合H</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>81.18</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3716</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005358</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2767</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>015059</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏产业升级混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1920</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001387</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1748</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009698</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1660</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>168207</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中融创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1623</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013566</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏军工安全灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1476</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001701</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中融产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1203</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009205</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>37.15</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1041</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>160518</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>81.78</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0976</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001924</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0968</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001675</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>江信同福灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.80</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0758</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010697</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中融行业先锋6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>84.56</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009206</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>37.15</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0635</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001388</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0515</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>015058</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华夏高端制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0345</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001676</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>江信同福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.80</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>010194</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>博时睿祥15个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>64.73</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009317</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>金信核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>88.37</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011185</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>东方阿尔法招阳混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010698</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中融行业先锋6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>84.56</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010195</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>博时睿祥15个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>64.73</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5341,26 +7688,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.78</t>
+          <t>46.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3585</t>
+          <t>3.5242</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5379,26 +7726,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.47</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4364</t>
+          <t>1.2706</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5407,36 +7754,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002983</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合A</t>
+          <t>华夏成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.74</t>
+          <t>33.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>78.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3343</t>
+          <t>1.1889</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5445,36 +7792,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>009697</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏成长混合</t>
+          <t>华夏成长精选6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31.69</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.21</t>
+          <t>85.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8525</t>
+          <t>0.6312</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5483,36 +7830,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009697</t>
+          <t>005774</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏成长精选6个月定期开放混合A</t>
+          <t>华夏产业升级混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.44</t>
+          <t>12.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7036</t>
+          <t>0.5872</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -5521,36 +7868,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005774</t>
+          <t>011184</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏产业升级混合</t>
+          <t>东方阿尔法招阳混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.64</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6649</t>
+          <t>0.5367</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -5559,36 +7906,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007449</t>
+          <t>519908</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴全多维价值混合A</t>
+          <t>华夏兴华混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>28.03</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.40</t>
+          <t>81.18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6587</t>
+          <t>0.3716</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -5597,36 +7944,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008960</t>
+          <t>960004</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合C</t>
+          <t>华夏兴华混合H</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.19</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>81.18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6582</t>
+          <t>0.3716</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -5635,36 +7982,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519908</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏兴华混合A</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3127</t>
+          <t>0.2767</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -5673,36 +8020,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>960004</t>
+          <t>015059</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏兴华混合H</t>
+          <t>华夏产业升级混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3127</t>
+          <t>0.1920</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -5711,36 +8058,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012568</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘高端制造混合型证券投资基金A</t>
+          <t>中融新经济灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2600</t>
+          <t>0.1748</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -5759,26 +8106,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>85.24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1851</t>
+          <t>0.1660</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -5787,36 +8134,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>460002</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合A</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.55</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1601</t>
+          <t>0.1623</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -5825,36 +8172,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>519993</t>
+          <t>013566</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长信增利动态策略混合</t>
+          <t>华夏军工安全灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1306</t>
+          <t>0.1476</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -5863,32 +8210,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>001701</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合A</t>
+          <t>中融产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1119</t>
+          <t>0.1203</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -5901,36 +8248,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007450</t>
+          <t>009205</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴全多维价值混合C</t>
+          <t>兴银丰运稳益回报混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>84.40</t>
+          <t>37.15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1053</t>
+          <t>0.1041</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -5939,36 +8286,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001701</t>
+          <t>160518</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中融产业升级灵活配置混合</t>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>81.78</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0980</t>
+          <t>0.0976</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -5977,36 +8324,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010697</t>
+          <t>001924</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合A</t>
+          <t>华夏国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0766</t>
+          <t>0.0968</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -6025,26 +8372,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>91.80</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0641</t>
+          <t>0.0758</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -6053,36 +8400,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519967</t>
+          <t>010697</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>长信利富债券</t>
+          <t>中融行业先锋6个月持有期混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0490</t>
+          <t>0.0668</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -6091,36 +8438,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012569</t>
+          <t>009206</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天弘高端制造混合型证券投资基金C</t>
+          <t>兴银丰运稳益回报混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>37.15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -6129,22 +8476,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002604</t>
+          <t>001388</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合A</t>
+          <t>中融新经济灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>75.30</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -6154,11 +8501,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -6167,36 +8514,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010613</t>
+          <t>015058</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合A</t>
+          <t>华夏高端制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0327</t>
+          <t>0.0374</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -6205,36 +8552,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001676</t>
+          <t>005359</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合C</t>
+          <t>东方阿尔法精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0264</t>
+          <t>0.0345</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -6243,36 +8590,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>001676</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>江信同福灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>91.80</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0240</t>
+          <t>0.0284</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -6281,36 +8628,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>519971</t>
+          <t>010194</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>长信改革红利灵活配置混合</t>
+          <t>博时睿祥15个月定期开放混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>73.88</t>
+          <t>64.73</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0195</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -6319,36 +8666,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010614</t>
+          <t>009317</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合C</t>
+          <t>金信核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>88.37</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -6357,36 +8704,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010698</t>
+          <t>011185</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合C</t>
+          <t>东方阿尔法招阳混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -6395,36 +8742,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008213</t>
+          <t>010698</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合C</t>
+          <t>中融行业先锋6个月持有期混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>75.30</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -6433,12 +8780,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>960030</t>
+          <t>010195</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合H</t>
+          <t>博时睿祥15个月定期开放混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6448,19 +8795,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>81.55</t>
+          <t>64.73</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6469,6 +8816,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3585</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8525</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6649</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6587</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6582</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信利富债券</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8420,7 +11961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9420,7 +12961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10728,7 +14269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11459,1046 +15000,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004698</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时军工主题股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>39.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1385</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000654</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商新锐产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5586</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>050010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时特许价值混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2581</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160805</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长盛同智优势成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2401</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>630011</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商主题精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1980</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008961</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华商科技创新混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1586</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008009</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商高端装备制造股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1438</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004423</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华商研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1189</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004139</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中邮军民融合灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.68</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004671</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中融核心成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0735</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0623</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>540004</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇丰晋信2026周期混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>64.74</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0466</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001279</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中海积极增利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>84.02</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002595</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时工业4.0主题股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0334</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004475</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001261</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中融新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001252</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中海进取收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002567</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成国家安全主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>83.41</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>540007</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002453</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003175</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004212</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中融量化智选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002454</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004783</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中融量化智选混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>